--- a/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-07-29.xlsx
+++ b/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-07-29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="6" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -1316,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:AD234"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3955,7 +3955,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-07-29.xlsx
+++ b/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-07-29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="27">
   <si>
     <t>Secteur</t>
   </si>
@@ -48,16 +48,25 @@
     <t>Saleccia</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Cecchini, Laurent Ricquiers, Jean-Philippe Casanova</t>
   </si>
   <si>
     <t>Lotu</t>
   </si>
   <si>
+    <t>Aurelie Essartier, Frank Gauthier, Laurent Ricquiers, Jean-Philippe Casanova</t>
+  </si>
+  <si>
     <t>Mezzanu</t>
   </si>
   <si>
+    <t>Laurent Ricquiers, Jean-Philippe Casanova</t>
+  </si>
+  <si>
     <t>Fiume Santu</t>
+  </si>
+  <si>
+    <t>surestime car contient les données du secteur Puntalle</t>
   </si>
   <si>
     <t>Horaire</t>
@@ -94,6 +103,9 @@
   </si>
   <si>
     <t>Moteur</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Voilier</t>
@@ -1227,16 +1239,16 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="72.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1273,33 +1285,35 @@
         <v>44041</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10">
         <v>44041</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10">
         <v>44041</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1316,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:AD234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1336,38 +1350,38 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1379,58 +1393,58 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -1439,52 +1453,52 @@
         <v>0.375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3">
         <f>IF(SUM(C3,F3,I3,L3,O3)=0,"NA",SUM(C3,F3,I3,L3,O3))</f>
@@ -1503,52 +1517,52 @@
     <row r="4" s="5" customFormat="1" ht="52" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" ref="R4:R10" si="1">IF(SUM(C4,F4,I4,L4,O4)=0,"NA",SUM(C4,F4,I4,L4,O4))</f>
@@ -1569,52 +1583,52 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>6</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="1"/>
@@ -1629,58 +1643,58 @@
         <v>NA</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="52" customHeight="1" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="1"/>
@@ -1702,52 +1716,52 @@
         <v>0.625</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>3</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="1"/>
@@ -1766,52 +1780,52 @@
     <row r="8" s="5" customFormat="1" ht="52" customHeight="1" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="1"/>
@@ -1832,52 +1846,52 @@
         <v>0.708333333333333</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="1"/>
@@ -1896,52 +1910,52 @@
     <row r="10" s="5" customFormat="1" ht="52" customHeight="1" spans="1:23">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="1"/>
@@ -2283,7 +2297,7 @@
   <sheetPr/>
   <dimension ref="A1:U233"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2298,38 +2312,38 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="62" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2341,58 +2355,58 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -2401,52 +2415,52 @@
         <v>0.375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" ref="R3:R10" si="0">IF(SUM(C3,F3,I3,L3,O3)=0,"NA",SUM(C3,F3,I3,L3,O3))</f>
@@ -2465,52 +2479,52 @@
     <row r="4" s="5" customFormat="1" ht="63" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
@@ -2531,52 +2545,52 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="0"/>
@@ -2591,58 +2605,58 @@
         <v>NA</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="63" customHeight="1" spans="1:21">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
         <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="0"/>
@@ -2663,52 +2677,52 @@
         <v>0.625</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="0"/>
@@ -2727,52 +2741,52 @@
     <row r="8" s="5" customFormat="1" ht="63" customHeight="1" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="0"/>
@@ -2793,52 +2807,52 @@
         <v>0.708333333333333</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="0"/>
@@ -2857,52 +2871,52 @@
     <row r="10" s="5" customFormat="1" ht="64" customHeight="1" spans="1:21">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="0"/>
@@ -3261,38 +3275,38 @@
   <sheetData>
     <row r="1" ht="70" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -3304,58 +3318,58 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -3364,52 +3378,52 @@
         <v>0.375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" ref="R3:R10" si="0">IF(SUM(C3,F3,I3,L3,O3)=0,"NA",SUM(C3,F3,I3,L3,O3))</f>
@@ -3428,52 +3442,52 @@
     <row r="4" ht="55" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
@@ -3494,52 +3508,52 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="0"/>
@@ -3558,52 +3572,52 @@
     <row r="6" ht="55" customHeight="1" spans="1:21">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="0"/>
@@ -3624,52 +3638,52 @@
         <v>0.625</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="0"/>
@@ -3688,52 +3702,52 @@
     <row r="8" ht="55" customHeight="1" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="0"/>
@@ -3754,52 +3768,52 @@
         <v>0.708333333333333</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="0"/>
@@ -3818,52 +3832,52 @@
     <row r="10" ht="61" customHeight="1" spans="1:21">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="0"/>
@@ -3968,38 +3982,38 @@
   <sheetData>
     <row r="1" customFormat="1" ht="70" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -4011,58 +4025,58 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -4071,52 +4085,52 @@
         <v>0.375</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
         <v>3</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" ref="R3:R10" si="0">IF(SUM(C3,F3,I3,L3,O3)=0,"NA",SUM(C3,F3,I3,L3,O3))</f>
@@ -4135,52 +4149,52 @@
     <row r="4" customFormat="1" ht="55" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
@@ -4201,52 +4215,52 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="0"/>
@@ -4265,52 +4279,52 @@
     <row r="6" customFormat="1" ht="55" customHeight="1" spans="1:21">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="0"/>
@@ -4331,52 +4345,52 @@
         <v>0.625</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="0"/>
@@ -4395,52 +4409,52 @@
     <row r="8" customFormat="1" ht="55" customHeight="1" spans="1:21">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="0"/>
@@ -4461,52 +4475,52 @@
         <v>0.708333333333333</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="0"/>
@@ -4525,52 +4539,52 @@
     <row r="10" customFormat="1" ht="61" customHeight="1" spans="1:21">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="0"/>
